--- a/biology/Médecine/Knock_ou_le_Triomphe_de_la_médecine/Knock_ou_le_Triomphe_de_la_médecine.xlsx
+++ b/biology/Médecine/Knock_ou_le_Triomphe_de_la_médecine/Knock_ou_le_Triomphe_de_la_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Knock_ou_le_Triomphe_de_la_m%C3%A9decine</t>
+          <t>Knock_ou_le_Triomphe_de_la_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Knock ou le Triomphe de la médecine est une pièce de théâtre de Jules Romains, représentée pour la première fois à Paris, à la Comédie des Champs-Élysées, le 14 décembre 1923, sous la direction de Jacques Hébertot, mise en scène et décors de Louis Jouvet, qui interprète également le rôle principal.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Knock_ou_le_Triomphe_de_la_m%C3%A9decine</t>
+          <t>Knock_ou_le_Triomphe_de_la_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Knock (le personnage principal)
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Knock_ou_le_Triomphe_de_la_m%C3%A9decine</t>
+          <t>Knock_ou_le_Triomphe_de_la_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,13 +576,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Premier acte
-Le Dr Parpalaid a vendu au Dr Knock « une clientèle nulle ». Acceptant le défi, Knock dresse à ses interlocuteurs (Parpalaid et son épouse) un tableau si invraisemblable de ses prétentions médicales que le Dr Parpalaid en arrive à se demander s'il est réellement médecin. Lorsque l'acte se termine on ne sait pas si Knock gagnera son pari, mais on a déjà assisté à la première étape de ce travail : estimer les revenus de ses futurs clients et repérer tout ce qui pourrait faire obstacle à l'idéologie qu'il a l'intention de promouvoir.
-Deuxième acte
-On assiste à la démonstration des techniques du Dr Knock. Jules Romains décrit pratiquement toutes les techniques de manipulation enseignées pour la pratique clinique ou la vente. Il fait défiler tous les groupes sociaux du canton ou les supports que Knock utilise : l'information, avec le tambour de ville et l'instituteur, le commerce, la paysannerie, l'aristocratie de province. L'acte se termine avec deux hommes éméchés dont Knock prend le contrôle avec vigueur, rappelant que la force est toujours présente derrière l'idéologie.
-Troisième acte
-Le Dr Parpalaid, qui se moquait de Knock au premier acte, est maintenant témoin de son succès. Stupéfait, il est malmené par les « disciples » de Knock. Ce dernier a réussi à prendre le contrôle sur tout le canton, puisque ceux qui ne sont pas au lit travaillent pour lui. Il observe alors ses disciples agir pour lui. Lorsque Knock se retrouve seul avec son confrère docteur, il va se lancer dans un discours où il étale sa volonté de puissance, qui se rapproche de la folie. 
-La dernière réplique montre que Knock ne rencontre plus aucune résistance, puisque même un médecin arrive à se croire malade et demande des soins au manipulateur.
+          <t>Premier acte</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dr Parpalaid a vendu au Dr Knock « une clientèle nulle ». Acceptant le défi, Knock dresse à ses interlocuteurs (Parpalaid et son épouse) un tableau si invraisemblable de ses prétentions médicales que le Dr Parpalaid en arrive à se demander s'il est réellement médecin. Lorsque l'acte se termine on ne sait pas si Knock gagnera son pari, mais on a déjà assisté à la première étape de ce travail : estimer les revenus de ses futurs clients et repérer tout ce qui pourrait faire obstacle à l'idéologie qu'il a l'intention de promouvoir.
 </t>
         </is>
       </c>
@@ -579,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Knock_ou_le_Triomphe_de_la_m%C3%A9decine</t>
+          <t>Knock_ou_le_Triomphe_de_la_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,10 +608,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Deuxième acte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On assiste à la démonstration des techniques du Dr Knock. Jules Romains décrit pratiquement toutes les techniques de manipulation enseignées pour la pratique clinique ou la vente. Il fait défiler tous les groupes sociaux du canton ou les supports que Knock utilise : l'information, avec le tambour de ville et l'instituteur, le commerce, la paysannerie, l'aristocratie de province. L'acte se termine avec deux hommes éméchés dont Knock prend le contrôle avec vigueur, rappelant que la force est toujours présente derrière l'idéologie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Knock_ou_le_Triomphe_de_la_médecine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Knock_ou_le_Triomphe_de_la_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Troisième acte</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dr Parpalaid, qui se moquait de Knock au premier acte, est maintenant témoin de son succès. Stupéfait, il est malmené par les « disciples » de Knock. Ce dernier a réussi à prendre le contrôle sur tout le canton, puisque ceux qui ne sont pas au lit travaillent pour lui. Il observe alors ses disciples agir pour lui. Lorsque Knock se retrouve seul avec son confrère docteur, il va se lancer dans un discours où il étale sa volonté de puissance, qui se rapproche de la folie. 
+La dernière réplique montre que Knock ne rencontre plus aucune résistance, puisque même un médecin arrive à se croire malade et demande des soins au manipulateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Knock_ou_le_Triomphe_de_la_médecine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Knock_ou_le_Triomphe_de_la_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Citations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Knock : « Les gens bien portants sont des malades qui s'ignorent ! »
 Knock : « Ne confondons pas. Est-ce que ça vous chatouille, ou est-ce que ça vous gratouille ? »
@@ -608,31 +699,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Knock_ou_le_Triomphe_de_la_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Knock_ou_le_Triomphe_de_la_médecine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Knock_ou_le_Triomphe_de_la_m%C3%A9decine</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Mises en scène</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>En 1932 une traduction en espéranto (par Pierre Corret) de la pièce fut représentée dans la cadre du Congrès universel, qui avait lieu cette année-là à Paris.
 Knock, mise en scène de Pierre Mondy, avec Michel Serrault (Théâtre de la Porte Saint Martin, 1992)
@@ -641,39 +734,78 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Knock_ou_le_Triomphe_de_la_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Knock_ou_le_Triomphe_de_la_médecine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Knock_ou_le_Triomphe_de_la_m%C3%A9decine</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Adaptations à l'écran</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Au cinéma
-1925 : Knock réalisé par René Hervil.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1925 : Knock réalisé par René Hervil.
 1933 : Knock ou Le triomphe de la médecine réalisé par Roger Goupillières.
 1951 : Knock réalisé par Guy Lefranc.
-2017 : Knock réalisé par Lorraine Levy.
-À la télévision
-1955 : Knock, réalisé par Marcel Cravenne.
+2017 : Knock réalisé par Lorraine Levy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Knock_ou_le_Triomphe_de_la_médecine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Knock_ou_le_Triomphe_de_la_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Adaptations à l'écran</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1955 : Knock, réalisé par Marcel Cravenne.
 1967 : Knock o il trionfo della medicina, réalisé par Vittorio Cottafavi.
 2004 : Knock réalisé par Laurent Preyale.</t>
         </is>
